--- a/data-raw/un_countries.xlsx
+++ b/data-raw/un_countries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caldwellst/Documents/repos/packages/whotilities/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caldwellst/Documents/repos/packages/whoville/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F50726B4-BD28-5F42-904E-0204426EE523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54105625-F269-7940-BA1F-385B81E2FC2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940" activeTab="4"/>
+    <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="UNSD — Methodology-1" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="UNSD — Methodology-1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/caldwellst/Downloads/UNSD — Methodology-1.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
@@ -56,7 +56,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="UNSD — Methodology-3" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="UNSD — Methodology-3" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/caldwellst/Downloads/UNSD — Methodology-3.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
@@ -78,7 +78,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="UNSD — Methodology-4" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="UNSD — Methodology-4" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/caldwellst/Downloads/UNSD — Methodology-4.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
@@ -100,7 +100,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="UNSD — Methodology-5" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="UNSD — Methodology-5" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/caldwellst/Downloads/UNSD — Methodology-5.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
@@ -122,7 +122,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="UNSD — Methodology-6" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="UNSD — Methodology-6" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/caldwellst/Downloads/UNSD — Methodology-6.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
@@ -144,7 +144,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="UNSD — Methodology-7" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="UNSD — Methodology-7" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/caldwellst/Downloads/UNSD — Methodology-7.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11967" uniqueCount="2016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11968" uniqueCount="2016">
   <si>
     <t>Global Code</t>
   </si>
@@ -6223,7 +6223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -6762,27 +6762,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="UNSD — Methodology-1_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="UNSD — Methodology-1_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="UNSD — Methodology-4" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="UNSD — Methodology-4" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="UNSD — Methodology-5" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="UNSD — Methodology-5" connectionId="4" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="UNSD — Methodology-6" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="UNSD — Methodology-6" connectionId="5" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="UNSD — Methodology-7" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="UNSD — Methodology-7" connectionId="6" xr16:uid="{00000000-0016-0000-0400-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="UNSD — Methodology-3" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="UNSD — Methodology-3" connectionId="2" xr16:uid="{00000000-0016-0000-0500-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7081,11 +7081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="I121" workbookViewId="0">
+      <selection activeCell="N154" sqref="N154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13461,6 +13461,9 @@
       <c r="L154" t="s">
         <v>498</v>
       </c>
+      <c r="O154" t="s">
+        <v>35</v>
+      </c>
       <c r="P154" t="s">
         <v>22</v>
       </c>
@@ -16921,7 +16924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26739,7 +26742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36557,7 +36560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -46375,11 +46378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="H234" workbookViewId="0">
+      <selection activeCell="K259" sqref="K259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56195,7 +56198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
